--- a/summary/summary template.xlsx
+++ b/summary/summary template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mahesh.chandra/Desktop/Projects/myrepos/arca/summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A3D7ED-CD4B-434F-B9B2-E0F8B2F3B040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1F58D9-570A-7A44-803B-431684087960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="June22" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="SEPTEMBER22" sheetId="7" r:id="rId5"/>
     <sheet name="HalfYear 22-23" sheetId="5" r:id="rId6"/>
     <sheet name="Q2" sheetId="6" r:id="rId7"/>
+    <sheet name="Apr22_to_November22" sheetId="8" r:id="rId8"/>
+    <sheet name="apr22to_nov22" sheetId="9" r:id="rId9"/>
+    <sheet name="November'22" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="116">
   <si>
     <t>SUMMARY – JUNE 2022</t>
   </si>
@@ -234,13 +237,169 @@
   </si>
   <si>
     <t>SUMMARY – AUGUST 2022</t>
+  </si>
+  <si>
+    <t>SUMMARY – Q2 2022-23</t>
+  </si>
+  <si>
+    <t>SUMMARY – SEPTEMBER 2022-23</t>
+  </si>
+  <si>
+    <t>CCTV and Maintainance</t>
+  </si>
+  <si>
+    <t>ELECTRICITY BILLS and WORKS</t>
+  </si>
+  <si>
+    <t>INTERNET</t>
+  </si>
+  <si>
+    <t>MANJEERA WATER DUES(CAPEX)</t>
+  </si>
+  <si>
+    <t>CASH ON HAND</t>
+  </si>
+  <si>
+    <t>TOTAL AMOUNT OF WORKS CARRIED</t>
+  </si>
+  <si>
+    <t>TOTAL INCOME</t>
+  </si>
+  <si>
+    <t>TREASURER CASH ON HAND</t>
+  </si>
+  <si>
+    <t>SUMMARY – APRIL 1ST TO 18 NOVEMBER (2022-23)</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>REMARKS</t>
+  </si>
+  <si>
+    <t>369 Are chanrges for breaking FD</t>
+  </si>
+  <si>
+    <t>Refund Initiated for Use of Less cubic meters concrete than estimated</t>
+  </si>
+  <si>
+    <t>Received from Previous Treasurer</t>
+  </si>
+  <si>
+    <t>More Details shared in another screenshot for bank transactions.</t>
+  </si>
+  <si>
+    <t>404 and 501 flats</t>
+  </si>
+  <si>
+    <t>Terrace Lift Room Doors</t>
+  </si>
+  <si>
+    <t>West side concrete works</t>
+  </si>
+  <si>
+    <t xml:space="preserve">507, 307,503, and 305 flats  </t>
+  </si>
+  <si>
+    <t>For Security(Reimbursed to Watchman Satyanarayana)</t>
+  </si>
+  <si>
+    <t>503 Flat</t>
+  </si>
+  <si>
+    <t>Includes salaries of Watchman and Security</t>
+  </si>
+  <si>
+    <t>For Watchman on ill health reasons</t>
+  </si>
+  <si>
+    <t>BANK BALANCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWENTY THREE LAKHS TWENTY ONE THOUSAND THREE HUNDERE AND NINTY </t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>TOTAL AMOUNT SPENT ON WORKS TAKEN UP</t>
+  </si>
+  <si>
+    <t>TWO LAKHS THREE THOUSAND SIX HUNDRED AND FORTY TWO</t>
+  </si>
+  <si>
+    <t>THIRTY EIGHT THOUSAND TWO HUNDRED AND ONE</t>
+  </si>
+  <si>
+    <t>SEVEN LAKHS</t>
+  </si>
+  <si>
+    <t>FOURTEEN LAKHS TWENTY SIX THOUSAND SIX HUNDRED AND EIGHTY FIVE</t>
+  </si>
+  <si>
+    <t>TOTAL CASH AVAILABLE</t>
+  </si>
+  <si>
+    <t>NINE LAKHS FORTY ONE THOUSAND EIGHT HUNDRED AND FORTY FOUR</t>
+  </si>
+  <si>
+    <t>SUMMARY – NOVEMBER 2022-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BORE WELL REPAIR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPEX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCTV and Maintainance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLEANING ITEMS PURCHASE BY WATCHMAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRINKING WATER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELECTRICITY BILLS and WORKS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GENERATOR MAINTENANCE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIGEON NETS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLUMBING </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paints &amp; Colouring </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SECRETARY CASH ON HAND </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEA BILLS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TREE CUTTING AND PRUNING </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WATER TANKER </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -252,14 +411,14 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -271,28 +430,28 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
       <color rgb="FFFFFFFF"/>
       <name val="Cambria"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -352,8 +511,41 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -465,8 +657,26 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -504,6 +714,111 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -511,7 +826,7 @@
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -575,18 +890,6 @@
     <xf numFmtId="0" fontId="8" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -594,9 +897,6 @@
     <xf numFmtId="0" fontId="13" fillId="18" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -610,6 +910,88 @@
     <xf numFmtId="0" fontId="10" fillId="18" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -617,7 +999,563 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="29">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -696,6 +1634,48 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F0997157-E6CF-DD46-8855-EE69CD5E1158}" name="Table2" displayName="Table2" ref="B2:I42" totalsRowCount="1" headerRowDxfId="28" dataDxfId="26" totalsRowDxfId="24" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="23">
+  <autoFilter ref="B2:I41" xr:uid="{F0997157-E6CF-DD46-8855-EE69CD5E1158}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{23B5544A-CD6A-1E45-B978-823D80B6007B}" name="CATEGORY" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{36F2BB1E-7624-504F-865F-B15D1ABB7D4E}" name="IN" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="19">
+      <totalsRowFormula>SUM(C3:C41)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{4F62D99D-CEBA-2746-ADED-5DEA955AD466}" name="OUT" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="17">
+      <totalsRowFormula>SUM(D3:D41)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{7F850943-F81A-C941-ACAE-AD95F7CC1023}" name="TOTAL AMOUNT OF WORKS CARRIED" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="15">
+      <totalsRowFormula>SUM(E3:E41)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{54583A14-85A7-EC4A-97C4-9CEBA80049A0}" name="CASH ON HAND" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="13">
+      <totalsRowFormula>SUM(F3:F41)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{43C2DA45-0E93-9A46-816B-51AABC8D3A7F}" name="TOTAL INCOME" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="11">
+      <calculatedColumnFormula>C3</calculatedColumnFormula>
+      <totalsRowFormula>SUM(G3:G41)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{3A7C5BA2-8AEF-334C-A039-D8E101C1EB76}" name="FIXED DEPOSITS" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="9">
+      <totalsRowFormula>SUM(H3:H41)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{62AAF91A-7196-C447-AE30-ECBC636BBBF7}" name="REMARKS" dataDxfId="8" totalsRowDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{696E8E77-FC5F-104B-A338-1BE86D46A20F}" name="Table1" displayName="Table1" ref="A1:C7" totalsRowShown="0" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C7" xr:uid="{696E8E77-FC5F-104B-A338-1BE86D46A20F}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{D744A964-D913-5346-83A1-3294116BC737}" name="Column1" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{9716AFEA-B1DA-5041-97E1-99ECF182894B}" name="Column2" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{BE953758-FA64-7C44-AC3E-EC04CF60FBF4}" name="Column3" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1007,11 +1987,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="18">
-      <c r="B3" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="B3" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
     </row>
     <row r="4" spans="2:9" ht="17">
       <c r="B4" s="1" t="s">
@@ -1288,50 +2268,50 @@
       <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="27">
-        <v>0</v>
-      </c>
-      <c r="D27" s="27"/>
+      <c r="C27" s="54">
+        <v>0</v>
+      </c>
+      <c r="D27" s="54"/>
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="2:9" ht="34">
       <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="27">
+      <c r="C28" s="54">
         <v>20862</v>
       </c>
-      <c r="D28" s="27"/>
+      <c r="D28" s="54"/>
       <c r="I28" s="7"/>
     </row>
     <row r="29" spans="2:9" ht="34">
       <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="27">
+      <c r="C29" s="54">
         <v>4688.7299999999996</v>
       </c>
-      <c r="D29" s="27"/>
+      <c r="D29" s="54"/>
       <c r="I29" s="7"/>
     </row>
     <row r="30" spans="2:9" ht="17">
       <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="28">
+      <c r="C30" s="55">
         <v>250276.64</v>
       </c>
-      <c r="D30" s="28"/>
+      <c r="D30" s="55"/>
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="2:9" ht="17">
       <c r="B31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="25"/>
+      <c r="D31" s="52"/>
       <c r="I31" s="7"/>
     </row>
     <row r="32" spans="2:9" ht="15">
@@ -1401,6 +2381,294 @@
   </mergeCells>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67F9817-CC38-CF43-B6D8-031EE2A623D2}">
+  <dimension ref="E15:K38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="0.1640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="15" spans="9:11" ht="18">
+      <c r="I15" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+    </row>
+    <row r="16" spans="9:11">
+      <c r="I16" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="9:11">
+      <c r="I17" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="60">
+        <v>20000</v>
+      </c>
+      <c r="K17" s="61">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="18" spans="9:11">
+      <c r="I18" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="J18" s="60">
+        <v>0</v>
+      </c>
+      <c r="K18" s="61">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="19" spans="9:11">
+      <c r="I19" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="J19" s="60">
+        <v>75300</v>
+      </c>
+      <c r="K19" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="9:11">
+      <c r="I20" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="J20" s="60">
+        <v>0</v>
+      </c>
+      <c r="K20" s="61">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="21" spans="9:11">
+      <c r="I21" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" s="60">
+        <v>0</v>
+      </c>
+      <c r="K21" s="61">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="22" spans="9:11">
+      <c r="I22" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="J22" s="60">
+        <v>0</v>
+      </c>
+      <c r="K22" s="61">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="23" spans="9:11">
+      <c r="I23" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="J23" s="60">
+        <v>0</v>
+      </c>
+      <c r="K23" s="61">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="24" spans="9:11">
+      <c r="I24" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="J24" s="60">
+        <v>0</v>
+      </c>
+      <c r="K24" s="61">
+        <v>14030.54</v>
+      </c>
+    </row>
+    <row r="25" spans="9:11">
+      <c r="I25" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="J25" s="60">
+        <v>0</v>
+      </c>
+      <c r="K25" s="61">
+        <v>10384</v>
+      </c>
+    </row>
+    <row r="26" spans="9:11">
+      <c r="I26" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" s="60">
+        <v>0</v>
+      </c>
+      <c r="K26" s="61">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="27" spans="9:11">
+      <c r="I27" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="J27" s="60">
+        <v>2961</v>
+      </c>
+      <c r="K27" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="9:11">
+      <c r="I28" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="J28" s="60">
+        <v>112750</v>
+      </c>
+      <c r="K28" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="9:11">
+      <c r="I29" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="J29" s="60">
+        <v>0</v>
+      </c>
+      <c r="K29" s="61">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="30" spans="9:11">
+      <c r="I30" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="J30" s="60">
+        <v>1720</v>
+      </c>
+      <c r="K30" s="61">
+        <v>10960</v>
+      </c>
+    </row>
+    <row r="31" spans="9:11">
+      <c r="I31" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="J31" s="60">
+        <v>0</v>
+      </c>
+      <c r="K31" s="61">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="32" spans="9:11">
+      <c r="I32" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="J32" s="60">
+        <v>0</v>
+      </c>
+      <c r="K32" s="61">
+        <v>41500</v>
+      </c>
+    </row>
+    <row r="33" spans="9:11">
+      <c r="I33" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="J33" s="60">
+        <v>41430</v>
+      </c>
+      <c r="K33" s="61">
+        <v>21720</v>
+      </c>
+    </row>
+    <row r="34" spans="9:11">
+      <c r="I34" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="J34" s="60">
+        <v>0</v>
+      </c>
+      <c r="K34" s="61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="9:11">
+      <c r="I35" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="J35" s="60">
+        <v>0</v>
+      </c>
+      <c r="K35" s="61">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="36" spans="9:11">
+      <c r="I36" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="J36" s="60">
+        <v>0</v>
+      </c>
+      <c r="K36" s="61">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="37" spans="9:11">
+      <c r="I37" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="J37" s="60">
+        <v>0</v>
+      </c>
+      <c r="K37" s="61">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="38" spans="9:11">
+      <c r="I38" s="23"/>
+      <c r="J38" s="23">
+        <f>SUM(J17:J37)</f>
+        <v>254161</v>
+      </c>
+      <c r="K38" s="23">
+        <f>SUM(K17:K37)</f>
+        <v>144764.54</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I15:K15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1420,11 +2688,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="18">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
     </row>
     <row r="4" spans="2:4" ht="19">
       <c r="B4" s="9" t="s">
@@ -1818,11 +3086,11 @@
   </cols>
   <sheetData>
     <row r="5" spans="6:8" ht="18">
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
     </row>
     <row r="6" spans="6:8" ht="19">
       <c r="F6" s="9" t="s">
@@ -2027,11 +3295,11 @@
   </cols>
   <sheetData>
     <row r="12" spans="6:8" ht="18">
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
     </row>
     <row r="13" spans="6:8">
       <c r="F13" s="20" t="s">
@@ -2214,6 +3482,7 @@
     <mergeCell ref="F12:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2221,18 +3490,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{311370E8-651F-C649-9457-433DFAE71B8B}">
   <dimension ref="I8:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24:K24"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="9" max="9" width="44.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="8" spans="9:11" ht="18">
-      <c r="I8" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
+      <c r="I8" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
     </row>
     <row r="9" spans="9:11">
       <c r="I9" s="20" t="s">
@@ -2245,166 +3517,167 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="9:11">
-      <c r="I10" t="s">
+    <row r="10" spans="9:11" ht="16">
+      <c r="I10" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="26">
         <v>30002</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="27">
         <v>30118</v>
       </c>
     </row>
-    <row r="11" spans="9:11">
-      <c r="I11" t="s">
+    <row r="11" spans="9:11" ht="16">
+      <c r="I11" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
+      <c r="J11" s="26">
+        <v>0</v>
+      </c>
+      <c r="K11" s="27">
         <v>6500</v>
       </c>
     </row>
-    <row r="12" spans="9:11">
-      <c r="I12" t="s">
+    <row r="12" spans="9:11" ht="16">
+      <c r="I12" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
+      <c r="J12" s="26">
+        <v>0</v>
+      </c>
+      <c r="K12" s="27">
         <v>3796</v>
       </c>
     </row>
-    <row r="13" spans="9:11">
-      <c r="I13" t="s">
+    <row r="13" spans="9:11" ht="16">
+      <c r="I13" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
+      <c r="J13" s="26">
+        <v>0</v>
+      </c>
+      <c r="K13" s="27">
         <v>26923.54</v>
       </c>
     </row>
-    <row r="14" spans="9:11">
-      <c r="I14" t="s">
+    <row r="14" spans="9:11" ht="16">
+      <c r="I14" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
+      <c r="J14" s="26">
+        <v>0</v>
+      </c>
+      <c r="K14" s="27">
         <v>23500</v>
       </c>
     </row>
-    <row r="15" spans="9:11">
-      <c r="I15" t="s">
+    <row r="15" spans="9:11" ht="16">
+      <c r="I15" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
+      <c r="J15" s="26">
+        <v>0</v>
+      </c>
+      <c r="K15" s="27">
         <v>5000</v>
       </c>
     </row>
-    <row r="16" spans="9:11">
-      <c r="I16" t="s">
+    <row r="16" spans="9:11" ht="16">
+      <c r="I16" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="26">
         <v>2961</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="9:11">
-      <c r="I17" t="s">
+      <c r="K16" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="9:11" ht="16">
+      <c r="I17" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="26">
         <v>124071</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="9:11">
-      <c r="I18" t="s">
+      <c r="K17" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="9:11" ht="16">
+      <c r="I18" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
+      <c r="J18" s="26">
+        <v>0</v>
+      </c>
+      <c r="K18" s="27">
         <v>38500</v>
       </c>
     </row>
-    <row r="19" spans="9:11">
-      <c r="I19" t="s">
+    <row r="19" spans="9:11" ht="16">
+      <c r="I19" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="26">
         <v>29700</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="27">
         <v>35000</v>
       </c>
     </row>
-    <row r="20" spans="9:11">
-      <c r="I20" t="s">
+    <row r="20" spans="9:11" ht="16">
+      <c r="I20" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
+      <c r="J20" s="26">
+        <v>0</v>
+      </c>
+      <c r="K20" s="27">
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="9:11">
-      <c r="I21" t="s">
+    <row r="21" spans="9:11" ht="16">
+      <c r="I21" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
+      <c r="J21" s="26">
+        <v>0</v>
+      </c>
+      <c r="K21" s="27">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="9:11">
-      <c r="I22" t="s">
+    <row r="22" spans="9:11" ht="16">
+      <c r="I22" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
+      <c r="J22" s="26">
+        <v>0</v>
+      </c>
+      <c r="K22" s="27">
         <v>5000</v>
       </c>
     </row>
-    <row r="23" spans="9:11">
-      <c r="I23" t="s">
+    <row r="23" spans="9:11" ht="16">
+      <c r="I23" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
+      <c r="J23" s="26">
+        <v>0</v>
+      </c>
+      <c r="K23" s="27">
         <v>1600</v>
       </c>
     </row>
-    <row r="24" spans="9:11">
-      <c r="J24">
+    <row r="24" spans="9:11" ht="16">
+      <c r="I24" s="33"/>
+      <c r="J24" s="23">
         <f>SUM(J10:J23)</f>
         <v>186734</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="23">
         <f>SUM(K10:K23)</f>
         <v>176112.54</v>
       </c>
@@ -2414,6 +3687,7 @@
     <mergeCell ref="I8:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2421,8 +3695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2ABDE80-F457-F940-A26A-6479551E4D50}">
   <dimension ref="I9:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2432,426 +3706,426 @@
   </cols>
   <sheetData>
     <row r="9" spans="9:11" ht="18">
-      <c r="I9" s="33" t="s">
+      <c r="I9" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
     </row>
     <row r="10" spans="9:11" ht="14">
-      <c r="I10" s="32" t="s">
+      <c r="I10" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="32" t="s">
+      <c r="K10" s="28" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="9:11" ht="17">
-      <c r="I11" s="35" t="s">
+      <c r="I11" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="31">
         <v>5660</v>
       </c>
-      <c r="K11" s="37">
+      <c r="K11" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="9:11" ht="17">
-      <c r="I12" s="35" t="s">
+      <c r="I12" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="36">
+      <c r="J12" s="31">
         <v>2243036.5</v>
       </c>
-      <c r="K12" s="37">
+      <c r="K12" s="32">
         <v>380118</v>
       </c>
     </row>
     <row r="13" spans="9:11" ht="17">
-      <c r="I13" s="35" t="s">
+      <c r="I13" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="36">
-        <v>0</v>
-      </c>
-      <c r="K13" s="37">
+      <c r="J13" s="31">
+        <v>0</v>
+      </c>
+      <c r="K13" s="32">
         <v>2200</v>
       </c>
     </row>
     <row r="14" spans="9:11" ht="17">
-      <c r="I14" s="35" t="s">
+      <c r="I14" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="36">
+      <c r="J14" s="31">
         <v>43720</v>
       </c>
-      <c r="K14" s="37">
+      <c r="K14" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="9:11" ht="17">
-      <c r="I15" s="35" t="s">
+      <c r="I15" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="36">
-        <v>0</v>
-      </c>
-      <c r="K15" s="37">
+      <c r="J15" s="31">
+        <v>0</v>
+      </c>
+      <c r="K15" s="32">
         <v>8966</v>
       </c>
     </row>
     <row r="16" spans="9:11" ht="17">
-      <c r="I16" s="35" t="s">
+      <c r="I16" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="J16" s="36">
+      <c r="J16" s="31">
         <v>69676.399999999994</v>
       </c>
-      <c r="K16" s="37">
+      <c r="K16" s="32">
         <v>760574</v>
       </c>
     </row>
     <row r="17" spans="9:11" ht="17">
-      <c r="I17" s="35" t="s">
+      <c r="I17" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="36">
-        <v>0</v>
-      </c>
-      <c r="K17" s="37">
+      <c r="J17" s="31">
+        <v>0</v>
+      </c>
+      <c r="K17" s="32">
         <v>67650</v>
       </c>
     </row>
     <row r="18" spans="9:11" ht="17">
-      <c r="I18" s="35" t="s">
+      <c r="I18" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="36">
-        <v>0</v>
-      </c>
-      <c r="K18" s="37">
+      <c r="J18" s="31">
+        <v>0</v>
+      </c>
+      <c r="K18" s="32">
         <v>8596</v>
       </c>
     </row>
     <row r="19" spans="9:11" ht="17">
-      <c r="I19" s="35" t="s">
+      <c r="I19" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="J19" s="36">
-        <v>0</v>
-      </c>
-      <c r="K19" s="37">
+      <c r="J19" s="31">
+        <v>0</v>
+      </c>
+      <c r="K19" s="32">
         <v>3968</v>
       </c>
     </row>
     <row r="20" spans="9:11" ht="17">
-      <c r="I20" s="35" t="s">
+      <c r="I20" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="36">
+      <c r="J20" s="31">
         <v>1830</v>
       </c>
-      <c r="K20" s="37">
+      <c r="K20" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="9:11" ht="17">
-      <c r="I21" s="35" t="s">
+      <c r="I21" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="36">
-        <v>0</v>
-      </c>
-      <c r="K21" s="37">
+      <c r="J21" s="31">
+        <v>0</v>
+      </c>
+      <c r="K21" s="32">
         <v>5000</v>
       </c>
     </row>
     <row r="22" spans="9:11" ht="17">
-      <c r="I22" s="35" t="s">
+      <c r="I22" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="36">
-        <v>0</v>
-      </c>
-      <c r="K22" s="37">
+      <c r="J22" s="31">
+        <v>0</v>
+      </c>
+      <c r="K22" s="32">
         <v>1320</v>
       </c>
     </row>
     <row r="23" spans="9:11" ht="17">
-      <c r="I23" s="35" t="s">
+      <c r="I23" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="J23" s="36">
-        <v>0</v>
-      </c>
-      <c r="K23" s="37">
+      <c r="J23" s="31">
+        <v>0</v>
+      </c>
+      <c r="K23" s="32">
         <v>96543.43</v>
       </c>
     </row>
     <row r="24" spans="9:11" ht="17">
-      <c r="I24" s="35" t="s">
+      <c r="I24" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="J24" s="36">
+      <c r="J24" s="31">
         <v>23500</v>
       </c>
-      <c r="K24" s="37">
+      <c r="K24" s="32">
         <v>23500</v>
       </c>
     </row>
     <row r="25" spans="9:11" ht="17">
-      <c r="I25" s="35" t="s">
+      <c r="I25" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="J25" s="36">
+      <c r="J25" s="31">
         <v>2500</v>
       </c>
-      <c r="K25" s="37">
+      <c r="K25" s="32">
         <v>2500</v>
       </c>
     </row>
     <row r="26" spans="9:11" ht="17">
-      <c r="I26" s="35" t="s">
+      <c r="I26" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="36">
+      <c r="J26" s="31">
         <v>299631</v>
       </c>
-      <c r="K26" s="37">
+      <c r="K26" s="32">
         <v>1000000</v>
       </c>
     </row>
     <row r="27" spans="9:11" ht="17">
-      <c r="I27" s="35" t="s">
+      <c r="I27" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J27" s="36">
-        <v>0</v>
-      </c>
-      <c r="K27" s="37">
+      <c r="J27" s="31">
+        <v>0</v>
+      </c>
+      <c r="K27" s="32">
         <v>97300</v>
       </c>
     </row>
     <row r="28" spans="9:11" ht="17">
-      <c r="I28" s="35" t="s">
+      <c r="I28" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="J28" s="36">
-        <v>0</v>
-      </c>
-      <c r="K28" s="37">
+      <c r="J28" s="31">
+        <v>0</v>
+      </c>
+      <c r="K28" s="32">
         <v>13400</v>
       </c>
     </row>
     <row r="29" spans="9:11" ht="17">
-      <c r="I29" s="35" t="s">
+      <c r="I29" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J29" s="36">
-        <v>0</v>
-      </c>
-      <c r="K29" s="37">
+      <c r="J29" s="31">
+        <v>0</v>
+      </c>
+      <c r="K29" s="32">
         <v>78706</v>
       </c>
     </row>
     <row r="30" spans="9:11" ht="17">
-      <c r="I30" s="35" t="s">
+      <c r="I30" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="36">
+      <c r="J30" s="31">
         <v>15643</v>
       </c>
-      <c r="K30" s="37">
+      <c r="K30" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="9:11" ht="17">
-      <c r="I31" s="35" t="s">
+      <c r="I31" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="J31" s="36">
-        <v>0</v>
-      </c>
-      <c r="K31" s="37">
+      <c r="J31" s="31">
+        <v>0</v>
+      </c>
+      <c r="K31" s="32">
         <v>153390</v>
       </c>
     </row>
     <row r="32" spans="9:11" ht="17">
-      <c r="I32" s="35" t="s">
+      <c r="I32" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="J32" s="36">
+      <c r="J32" s="31">
         <v>15600</v>
       </c>
-      <c r="K32" s="37">
+      <c r="K32" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="9:11" ht="17">
-      <c r="I33" s="35" t="s">
+      <c r="I33" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="J33" s="36">
-        <v>0</v>
-      </c>
-      <c r="K33" s="37">
+      <c r="J33" s="31">
+        <v>0</v>
+      </c>
+      <c r="K33" s="32">
         <v>15000</v>
       </c>
     </row>
     <row r="34" spans="9:11" ht="17">
-      <c r="I34" s="35" t="s">
+      <c r="I34" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="J34" s="36">
+      <c r="J34" s="31">
         <v>866141</v>
       </c>
-      <c r="K34" s="37">
+      <c r="K34" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="9:11" ht="17">
-      <c r="I35" s="35" t="s">
+      <c r="I35" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="J35" s="36">
+      <c r="J35" s="31">
         <v>125000</v>
       </c>
-      <c r="K35" s="37">
+      <c r="K35" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="9:11" ht="17">
-      <c r="I36" s="35" t="s">
+      <c r="I36" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="36">
-        <v>0</v>
-      </c>
-      <c r="K36" s="37">
+      <c r="J36" s="31">
+        <v>0</v>
+      </c>
+      <c r="K36" s="32">
         <v>20560</v>
       </c>
     </row>
     <row r="37" spans="9:11" ht="17">
-      <c r="I37" s="35" t="s">
+      <c r="I37" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J37" s="36">
-        <v>0</v>
-      </c>
-      <c r="K37" s="37">
+      <c r="J37" s="31">
+        <v>0</v>
+      </c>
+      <c r="K37" s="32">
         <v>252000</v>
       </c>
     </row>
     <row r="38" spans="9:11" ht="17">
-      <c r="I38" s="35" t="s">
+      <c r="I38" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="J38" s="36">
-        <v>0</v>
-      </c>
-      <c r="K38" s="37">
+      <c r="J38" s="31">
+        <v>0</v>
+      </c>
+      <c r="K38" s="32">
         <v>24000</v>
       </c>
     </row>
     <row r="39" spans="9:11" ht="17">
-      <c r="I39" s="35" t="s">
+      <c r="I39" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="J39" s="36">
+      <c r="J39" s="31">
         <v>207250</v>
       </c>
-      <c r="K39" s="37">
+      <c r="K39" s="32">
         <v>212470</v>
       </c>
     </row>
     <row r="40" spans="9:11" ht="17">
-      <c r="I40" s="35" t="s">
+      <c r="I40" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="J40" s="36">
-        <v>0</v>
-      </c>
-      <c r="K40" s="37">
+      <c r="J40" s="31">
+        <v>0</v>
+      </c>
+      <c r="K40" s="32">
         <v>2651</v>
       </c>
     </row>
     <row r="41" spans="9:11" ht="17">
-      <c r="I41" s="35" t="s">
+      <c r="I41" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="J41" s="36">
-        <v>0</v>
-      </c>
-      <c r="K41" s="37">
+      <c r="J41" s="31">
+        <v>0</v>
+      </c>
+      <c r="K41" s="32">
         <v>350</v>
       </c>
     </row>
     <row r="42" spans="9:11" ht="17">
-      <c r="I42" s="35" t="s">
+      <c r="I42" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="J42" s="36">
-        <v>0</v>
-      </c>
-      <c r="K42" s="37">
+      <c r="J42" s="31">
+        <v>0</v>
+      </c>
+      <c r="K42" s="32">
         <v>35368</v>
       </c>
     </row>
     <row r="43" spans="9:11" ht="17">
-      <c r="I43" s="35" t="s">
+      <c r="I43" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="J43" s="36">
-        <v>0</v>
-      </c>
-      <c r="K43" s="37">
+      <c r="J43" s="31">
+        <v>0</v>
+      </c>
+      <c r="K43" s="32">
         <v>12600</v>
       </c>
     </row>
     <row r="44" spans="9:11" ht="17">
-      <c r="I44" s="35" t="s">
+      <c r="I44" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="J44" s="36">
-        <v>0</v>
-      </c>
-      <c r="K44" s="37">
+      <c r="J44" s="31">
+        <v>0</v>
+      </c>
+      <c r="K44" s="32">
         <v>29735.22</v>
       </c>
     </row>
     <row r="45" spans="9:11" ht="17">
-      <c r="I45" s="35" t="s">
+      <c r="I45" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="J45" s="36">
-        <v>0</v>
-      </c>
-      <c r="K45" s="37">
+      <c r="J45" s="31">
+        <v>0</v>
+      </c>
+      <c r="K45" s="32">
         <v>308000</v>
       </c>
     </row>
     <row r="46" spans="9:11" ht="17">
-      <c r="I46" s="35" t="s">
+      <c r="I46" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="J46" s="36">
+      <c r="J46" s="31">
         <v>19170</v>
       </c>
-      <c r="K46" s="37">
+      <c r="K46" s="32">
         <v>49500</v>
       </c>
     </row>
     <row r="47" spans="9:11">
-      <c r="I47" s="34"/>
-      <c r="J47" s="34">
+      <c r="I47" s="29"/>
+      <c r="J47" s="29">
         <f>SUM(J11:J46)</f>
         <v>3938357.9</v>
       </c>
-      <c r="K47" s="34">
+      <c r="K47" s="29">
         <f>SUM(K11:K46)</f>
         <v>3665965.65</v>
       </c>
@@ -2861,15 +4135,16 @@
     <mergeCell ref="I9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A602AECC-85B5-8D43-B76F-7DC575F03D77}">
-  <dimension ref="I9:K38"/>
+  <dimension ref="I9:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:K38"/>
+    <sheetView topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2878,11 +4153,11 @@
   </cols>
   <sheetData>
     <row r="9" spans="9:11" ht="18">
-      <c r="I9" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
+      <c r="I9" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
     </row>
     <row r="10" spans="9:11">
       <c r="I10" s="20" t="s">
@@ -2896,311 +4171,300 @@
       </c>
     </row>
     <row r="11" spans="9:11" ht="17">
-      <c r="I11" s="29" t="s">
+      <c r="I11" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="26">
         <v>30002</v>
       </c>
-      <c r="K11" s="31">
+      <c r="K11" s="27">
         <v>30118</v>
       </c>
     </row>
     <row r="12" spans="9:11" ht="17">
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="30">
+      <c r="J12" s="26">
         <v>18720</v>
       </c>
-      <c r="K12" s="31">
+      <c r="K12" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="9:11" ht="17">
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="30">
-        <v>0</v>
-      </c>
-      <c r="K13" s="31">
+      <c r="J13" s="26">
+        <v>0</v>
+      </c>
+      <c r="K13" s="27">
         <v>15950</v>
       </c>
     </row>
     <row r="14" spans="9:11" ht="17">
-      <c r="I14" s="29" t="s">
+      <c r="I14" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="30">
-        <v>0</v>
-      </c>
-      <c r="K14" s="31">
+      <c r="J14" s="26">
+        <v>0</v>
+      </c>
+      <c r="K14" s="27">
         <v>3796</v>
       </c>
     </row>
     <row r="15" spans="9:11" ht="17">
-      <c r="I15" s="29" t="s">
+      <c r="I15" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="30">
-        <v>0</v>
-      </c>
-      <c r="K15" s="31">
+      <c r="J15" s="26">
+        <v>0</v>
+      </c>
+      <c r="K15" s="27">
         <v>1350</v>
       </c>
     </row>
     <row r="16" spans="9:11" ht="17">
-      <c r="I16" s="29" t="s">
+      <c r="I16" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="30">
+      <c r="J16" s="26">
         <v>660</v>
       </c>
-      <c r="K16" s="31">
+      <c r="K16" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="9:11" ht="17">
-      <c r="I17" s="29" t="s">
+      <c r="I17" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="30">
-        <v>0</v>
-      </c>
-      <c r="K17" s="31">
+      <c r="J17" s="26">
+        <v>0</v>
+      </c>
+      <c r="K17" s="27">
         <v>48086.62</v>
       </c>
     </row>
     <row r="18" spans="9:11" ht="17">
-      <c r="I18" s="29" t="s">
+      <c r="I18" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J18" s="26">
         <v>23500</v>
       </c>
-      <c r="K18" s="31">
+      <c r="K18" s="27">
         <v>23500</v>
       </c>
     </row>
     <row r="19" spans="9:11" ht="17">
-      <c r="I19" s="29" t="s">
+      <c r="I19" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="J19" s="30">
+      <c r="J19" s="26">
         <v>2500</v>
       </c>
-      <c r="K19" s="31">
+      <c r="K19" s="27">
         <v>2500</v>
       </c>
     </row>
     <row r="20" spans="9:11" ht="17">
-      <c r="I20" s="29" t="s">
+      <c r="I20" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="30">
-        <v>0</v>
-      </c>
-      <c r="K20" s="31">
+      <c r="J20" s="26">
+        <v>0</v>
+      </c>
+      <c r="K20" s="27">
         <v>17300</v>
       </c>
     </row>
     <row r="21" spans="9:11" ht="17">
-      <c r="I21" s="29" t="s">
+      <c r="I21" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="J21" s="30">
-        <v>0</v>
-      </c>
-      <c r="K21" s="31">
+      <c r="J21" s="26">
+        <v>0</v>
+      </c>
+      <c r="K21" s="27">
         <v>8900</v>
       </c>
     </row>
     <row r="22" spans="9:11" ht="17">
-      <c r="I22" s="29" t="s">
+      <c r="I22" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="30">
+      <c r="J22" s="26">
         <v>8883</v>
       </c>
-      <c r="K22" s="31">
+      <c r="K22" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="9:11" ht="17">
-      <c r="I23" s="29" t="s">
+      <c r="I23" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="30">
-        <v>0</v>
-      </c>
-      <c r="K23" s="31">
+      <c r="J23" s="26">
+        <v>0</v>
+      </c>
+      <c r="K23" s="27">
         <v>450</v>
       </c>
     </row>
     <row r="24" spans="9:11" ht="17">
-      <c r="I24" s="29" t="s">
+      <c r="I24" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="J24" s="30">
+      <c r="J24" s="26">
         <v>15600</v>
       </c>
-      <c r="K24" s="31">
+      <c r="K24" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="9:11" ht="17">
-      <c r="I25" s="29" t="s">
+      <c r="I25" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="J25" s="30">
-        <v>0</v>
-      </c>
-      <c r="K25" s="31">
+      <c r="J25" s="26">
+        <v>0</v>
+      </c>
+      <c r="K25" s="27">
         <v>15000</v>
       </c>
     </row>
     <row r="26" spans="9:11" ht="17">
-      <c r="I26" s="29" t="s">
+      <c r="I26" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="30">
+      <c r="J26" s="26">
         <v>382441</v>
       </c>
-      <c r="K26" s="31">
+      <c r="K26" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="9:11" ht="17">
-      <c r="I27" s="29" t="s">
+      <c r="I27" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="30">
-        <v>0</v>
-      </c>
-      <c r="K27" s="31">
+      <c r="J27" s="26">
+        <v>0</v>
+      </c>
+      <c r="K27" s="27">
         <v>5400</v>
       </c>
     </row>
     <row r="28" spans="9:11" ht="17">
-      <c r="I28" s="29" t="s">
+      <c r="I28" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="J28" s="30">
-        <v>0</v>
-      </c>
-      <c r="K28" s="31">
+      <c r="J28" s="26">
+        <v>0</v>
+      </c>
+      <c r="K28" s="27">
         <v>127500</v>
       </c>
     </row>
     <row r="29" spans="9:11" ht="17">
-      <c r="I29" s="29" t="s">
+      <c r="I29" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="J29" s="30">
-        <v>0</v>
-      </c>
-      <c r="K29" s="31">
+      <c r="J29" s="26">
+        <v>0</v>
+      </c>
+      <c r="K29" s="27">
         <v>24000</v>
       </c>
     </row>
     <row r="30" spans="9:11" ht="17">
-      <c r="I30" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="J30" s="30">
-        <v>122412</v>
-      </c>
-      <c r="K30" s="31">
-        <v>106770</v>
+      <c r="I30" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" s="26">
+        <v>0</v>
+      </c>
+      <c r="K30" s="27">
+        <v>285</v>
       </c>
     </row>
     <row r="31" spans="9:11" ht="17">
-      <c r="I31" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="J31" s="30">
-        <v>0</v>
-      </c>
-      <c r="K31" s="31">
-        <v>285</v>
+      <c r="I31" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="J31" s="26">
+        <v>0</v>
+      </c>
+      <c r="K31" s="27">
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="9:11" ht="17">
-      <c r="I32" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="J32" s="30">
-        <v>0</v>
-      </c>
-      <c r="K32" s="31">
-        <v>50</v>
+      <c r="I32" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32" s="26">
+        <v>0</v>
+      </c>
+      <c r="K32" s="27">
+        <v>15000</v>
       </c>
     </row>
     <row r="33" spans="9:11" ht="17">
-      <c r="I33" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="J33" s="30">
-        <v>0</v>
-      </c>
-      <c r="K33" s="31">
-        <v>15000</v>
+      <c r="I33" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="J33" s="26">
+        <v>0</v>
+      </c>
+      <c r="K33" s="27">
+        <v>1600</v>
       </c>
     </row>
     <row r="34" spans="9:11" ht="17">
-      <c r="I34" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="J34" s="30">
-        <v>0</v>
-      </c>
-      <c r="K34" s="31">
-        <v>1600</v>
+      <c r="I34" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="26">
+        <v>0</v>
+      </c>
+      <c r="K34" s="27">
+        <v>1405.5</v>
       </c>
     </row>
     <row r="35" spans="9:11" ht="17">
-      <c r="I35" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="J35" s="30">
-        <v>0</v>
-      </c>
-      <c r="K35" s="31">
-        <v>1405.5</v>
+      <c r="I35" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="26">
+        <v>0</v>
+      </c>
+      <c r="K35" s="27">
+        <v>108000</v>
       </c>
     </row>
     <row r="36" spans="9:11" ht="17">
-      <c r="I36" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="J36" s="30">
-        <v>0</v>
-      </c>
-      <c r="K36" s="31">
-        <v>108000</v>
-      </c>
-    </row>
-    <row r="37" spans="9:11" ht="17">
-      <c r="I37" s="29" t="s">
+      <c r="I36" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="J37" s="30">
+      <c r="J36" s="26">
         <v>9170</v>
       </c>
-      <c r="K37" s="31">
+      <c r="K36" s="27">
         <v>39500</v>
       </c>
     </row>
-    <row r="38" spans="9:11">
-      <c r="I38" s="23"/>
-      <c r="J38" s="23">
-        <f>SUM(J10:J36)</f>
-        <v>604718</v>
-      </c>
-      <c r="K38" s="23">
-        <f>SUM(K10:K36)</f>
-        <v>556961.12</v>
+    <row r="37" spans="9:11">
+      <c r="I37" s="23"/>
+      <c r="J37" s="23">
+        <f>SUM(J10:J35)</f>
+        <v>482306</v>
+      </c>
+      <c r="K37" s="23">
+        <f>SUM(K10:K35)</f>
+        <v>450191.12</v>
       </c>
     </row>
   </sheetData>
@@ -3208,5 +4472,1047 @@
     <mergeCell ref="I9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D35615-F181-E94B-BCB9-7F340BCEFF33}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:I42"/>
+  <sheetViews>
+    <sheetView zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="9" max="9" width="38.6640625" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" customWidth="1"/>
+    <col min="17" max="17" width="32" customWidth="1"/>
+    <col min="19" max="19" width="18.1640625" customWidth="1"/>
+    <col min="21" max="21" width="35.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="18">
+      <c r="B1" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+    </row>
+    <row r="2" spans="2:9" ht="56">
+      <c r="B2" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="14">
+      <c r="B3" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="47">
+        <v>5660</v>
+      </c>
+      <c r="D3" s="47">
+        <v>0</v>
+      </c>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47">
+        <f>C3</f>
+        <v>5660</v>
+      </c>
+      <c r="H3" s="47"/>
+      <c r="I3" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="29">
+      <c r="B4" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="48">
+        <v>2283036.5</v>
+      </c>
+      <c r="D4" s="48">
+        <v>420118</v>
+      </c>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="47">
+        <v>0</v>
+      </c>
+      <c r="D5" s="47">
+        <v>2200</v>
+      </c>
+      <c r="E5" s="47">
+        <f>(D5-C5)</f>
+        <v>2200</v>
+      </c>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47">
+        <f>C5</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="47"/>
+      <c r="I5" s="35"/>
+    </row>
+    <row r="6" spans="2:9" ht="14">
+      <c r="B6" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="47">
+        <v>119020</v>
+      </c>
+      <c r="D6" s="47">
+        <v>0</v>
+      </c>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47">
+        <f>C6</f>
+        <v>119020</v>
+      </c>
+      <c r="H6" s="47"/>
+      <c r="I6" s="35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="14">
+      <c r="B7" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="47">
+        <v>0</v>
+      </c>
+      <c r="D7" s="47">
+        <v>8966</v>
+      </c>
+      <c r="E7" s="47">
+        <f t="shared" ref="E7:E12" si="0">(D7-C7)</f>
+        <v>8966</v>
+      </c>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47">
+        <f>C7</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="47"/>
+      <c r="I7" s="35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="47">
+        <v>0</v>
+      </c>
+      <c r="D8" s="47">
+        <v>1400</v>
+      </c>
+      <c r="E8" s="47">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47">
+        <f>C8</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="47"/>
+      <c r="I8" s="35"/>
+    </row>
+    <row r="9" spans="2:9" ht="28">
+      <c r="B9" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="47">
+        <v>69676.399999999994</v>
+      </c>
+      <c r="D9" s="47">
+        <v>760574</v>
+      </c>
+      <c r="E9" s="47">
+        <f t="shared" si="0"/>
+        <v>690897.6</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="14">
+      <c r="B10" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="47">
+        <v>0</v>
+      </c>
+      <c r="D10" s="47">
+        <v>67650</v>
+      </c>
+      <c r="E10" s="47">
+        <f t="shared" si="0"/>
+        <v>67650</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47">
+        <f t="shared" ref="G10:G18" si="1">C10</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="47"/>
+      <c r="I10" s="35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="47">
+        <v>0</v>
+      </c>
+      <c r="D11" s="47">
+        <v>8596</v>
+      </c>
+      <c r="E11" s="47">
+        <f t="shared" si="0"/>
+        <v>8596</v>
+      </c>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="47"/>
+      <c r="I11" s="35"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="47">
+        <v>0</v>
+      </c>
+      <c r="D12" s="47">
+        <v>3968</v>
+      </c>
+      <c r="E12" s="47">
+        <f t="shared" si="0"/>
+        <v>3968</v>
+      </c>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="47"/>
+      <c r="I12" s="35"/>
+    </row>
+    <row r="13" spans="2:9" ht="18" customHeight="1">
+      <c r="B13" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="47">
+        <v>1830</v>
+      </c>
+      <c r="D13" s="47">
+        <v>0</v>
+      </c>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47">
+        <f t="shared" si="1"/>
+        <v>1830</v>
+      </c>
+      <c r="H13" s="47"/>
+      <c r="I13" s="35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="47">
+        <v>0</v>
+      </c>
+      <c r="D14" s="47">
+        <v>5000</v>
+      </c>
+      <c r="E14" s="47">
+        <f>(D14-C14)</f>
+        <v>5000</v>
+      </c>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="47"/>
+      <c r="I14" s="35"/>
+    </row>
+    <row r="15" spans="2:9" ht="28">
+      <c r="B15" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="47">
+        <v>0</v>
+      </c>
+      <c r="D15" s="47">
+        <v>1320</v>
+      </c>
+      <c r="E15" s="47">
+        <f>(D15-C15)</f>
+        <v>1320</v>
+      </c>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="47"/>
+      <c r="I15" s="35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="47">
+        <v>0</v>
+      </c>
+      <c r="D16" s="47">
+        <v>128302.51</v>
+      </c>
+      <c r="E16" s="47">
+        <f>(D16-C16)</f>
+        <v>128302.51</v>
+      </c>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="47"/>
+      <c r="I16" s="35"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="47">
+        <v>23500</v>
+      </c>
+      <c r="D17" s="47">
+        <v>23500</v>
+      </c>
+      <c r="E17" s="47">
+        <f>(D17-C17)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47">
+        <f t="shared" si="1"/>
+        <v>23500</v>
+      </c>
+      <c r="H17" s="47"/>
+      <c r="I17" s="35"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="47">
+        <v>2500</v>
+      </c>
+      <c r="D18" s="47">
+        <v>2500</v>
+      </c>
+      <c r="E18" s="47">
+        <f>(D18-C18)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+      <c r="H18" s="47"/>
+      <c r="I18" s="35"/>
+    </row>
+    <row r="19" spans="2:9" ht="14">
+      <c r="B19" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="47">
+        <v>299631</v>
+      </c>
+      <c r="D19" s="47">
+        <v>1000000</v>
+      </c>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47">
+        <f>D19-C19-369</f>
+        <v>700000</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="47">
+        <v>0</v>
+      </c>
+      <c r="D20" s="47">
+        <v>97300</v>
+      </c>
+      <c r="E20" s="47">
+        <f>(D20-C20)</f>
+        <v>97300</v>
+      </c>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47">
+        <f t="shared" ref="G20:G32" si="2">C20</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="47"/>
+      <c r="I20" s="35"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="47">
+        <v>0</v>
+      </c>
+      <c r="D21" s="47">
+        <v>23200</v>
+      </c>
+      <c r="E21" s="47">
+        <f>(D21-C21)</f>
+        <v>23200</v>
+      </c>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="47"/>
+      <c r="I21" s="35"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="47">
+        <v>0</v>
+      </c>
+      <c r="D22" s="47">
+        <v>78706</v>
+      </c>
+      <c r="E22" s="47">
+        <f>(D22-C22)</f>
+        <v>78706</v>
+      </c>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="47"/>
+      <c r="I22" s="35"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="47">
+        <v>21565</v>
+      </c>
+      <c r="D23" s="47">
+        <v>0</v>
+      </c>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47">
+        <f t="shared" si="2"/>
+        <v>21565</v>
+      </c>
+      <c r="H23" s="47"/>
+      <c r="I23" s="35"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="47">
+        <v>0</v>
+      </c>
+      <c r="D24" s="47">
+        <v>300</v>
+      </c>
+      <c r="E24" s="47">
+        <f>(D24-C24)</f>
+        <v>300</v>
+      </c>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="47"/>
+      <c r="I24" s="35"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="47">
+        <v>0</v>
+      </c>
+      <c r="D25" s="47">
+        <v>173390</v>
+      </c>
+      <c r="E25" s="47">
+        <f>(D25-C25)</f>
+        <v>173390</v>
+      </c>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="47"/>
+      <c r="I25" s="35"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="47">
+        <v>15600</v>
+      </c>
+      <c r="D26" s="47">
+        <v>0</v>
+      </c>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47">
+        <f t="shared" si="2"/>
+        <v>15600</v>
+      </c>
+      <c r="H26" s="47"/>
+      <c r="I26" s="35"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="47">
+        <v>0</v>
+      </c>
+      <c r="D27" s="47">
+        <v>15000</v>
+      </c>
+      <c r="E27" s="47">
+        <f>(D27-C27)</f>
+        <v>15000</v>
+      </c>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="47"/>
+      <c r="I27" s="35"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="47">
+        <v>1112010</v>
+      </c>
+      <c r="D28" s="47">
+        <v>0</v>
+      </c>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47">
+        <f t="shared" si="2"/>
+        <v>1112010</v>
+      </c>
+      <c r="H28" s="47"/>
+      <c r="I28" s="35"/>
+    </row>
+    <row r="29" spans="2:9" ht="14">
+      <c r="B29" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="47">
+        <v>125000</v>
+      </c>
+      <c r="D29" s="47">
+        <v>0</v>
+      </c>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47">
+        <f t="shared" si="2"/>
+        <v>125000</v>
+      </c>
+      <c r="H29" s="47"/>
+      <c r="I29" s="35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="47">
+        <v>0</v>
+      </c>
+      <c r="D30" s="47">
+        <v>20560</v>
+      </c>
+      <c r="E30" s="47">
+        <f>(D30-C30)</f>
+        <v>20560</v>
+      </c>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="47"/>
+      <c r="I30" s="35"/>
+    </row>
+    <row r="31" spans="2:9" ht="14">
+      <c r="B31" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="47">
+        <v>0</v>
+      </c>
+      <c r="D31" s="47">
+        <v>335000</v>
+      </c>
+      <c r="E31" s="47">
+        <f>(D31-C31)</f>
+        <v>335000</v>
+      </c>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="47"/>
+      <c r="I31" s="35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="14">
+      <c r="B32" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="47">
+        <v>0</v>
+      </c>
+      <c r="D32" s="47">
+        <v>24000</v>
+      </c>
+      <c r="E32" s="47">
+        <f>(D32-C32)</f>
+        <v>24000</v>
+      </c>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="47"/>
+      <c r="I32" s="35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="47">
+        <v>215050</v>
+      </c>
+      <c r="D33" s="47">
+        <v>252470</v>
+      </c>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47">
+        <f>(D33-C33)</f>
+        <v>37420</v>
+      </c>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="35"/>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47">
+        <v>781.43</v>
+      </c>
+      <c r="G34" s="47">
+        <f t="shared" ref="G34:G40" si="3">C34</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="47"/>
+      <c r="I34" s="35"/>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="47">
+        <v>0</v>
+      </c>
+      <c r="D35" s="47">
+        <v>2651</v>
+      </c>
+      <c r="E35" s="47">
+        <f t="shared" ref="E35:E41" si="4">(D35-C35)</f>
+        <v>2651</v>
+      </c>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="47"/>
+      <c r="I35" s="35"/>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="47">
+        <v>0</v>
+      </c>
+      <c r="D36" s="47">
+        <v>350</v>
+      </c>
+      <c r="E36" s="47">
+        <f t="shared" si="4"/>
+        <v>350</v>
+      </c>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="47"/>
+      <c r="I36" s="35"/>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="47">
+        <v>0</v>
+      </c>
+      <c r="D37" s="47">
+        <v>40368</v>
+      </c>
+      <c r="E37" s="47">
+        <f t="shared" si="4"/>
+        <v>40368</v>
+      </c>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="47"/>
+      <c r="I37" s="35"/>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="47">
+        <v>0</v>
+      </c>
+      <c r="D38" s="47">
+        <v>14200</v>
+      </c>
+      <c r="E38" s="47">
+        <f t="shared" si="4"/>
+        <v>14200</v>
+      </c>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="47"/>
+      <c r="I38" s="35"/>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="47">
+        <v>0</v>
+      </c>
+      <c r="D39" s="47">
+        <v>29735.22</v>
+      </c>
+      <c r="E39" s="47">
+        <f t="shared" si="4"/>
+        <v>29735.22</v>
+      </c>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="47"/>
+      <c r="I39" s="35"/>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="47">
+        <v>0</v>
+      </c>
+      <c r="D40" s="47">
+        <v>518000</v>
+      </c>
+      <c r="E40" s="47">
+        <f t="shared" si="4"/>
+        <v>518000</v>
+      </c>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="47"/>
+      <c r="I40" s="35"/>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="47">
+        <v>19170</v>
+      </c>
+      <c r="D41" s="47">
+        <v>49500</v>
+      </c>
+      <c r="E41" s="47">
+        <f t="shared" si="4"/>
+        <v>30330</v>
+      </c>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="35"/>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="34"/>
+      <c r="C42" s="47">
+        <f t="shared" ref="C42:H42" si="5">SUM(C3:C41)</f>
+        <v>4313248.9000000004</v>
+      </c>
+      <c r="D42" s="47">
+        <f t="shared" si="5"/>
+        <v>4108824.73</v>
+      </c>
+      <c r="E42" s="23">
+        <f t="shared" si="5"/>
+        <v>2321390.33</v>
+      </c>
+      <c r="F42" s="23">
+        <f t="shared" si="5"/>
+        <v>38201.43</v>
+      </c>
+      <c r="G42" s="23">
+        <f t="shared" si="5"/>
+        <v>1426685</v>
+      </c>
+      <c r="H42" s="23">
+        <f t="shared" si="5"/>
+        <v>700000</v>
+      </c>
+      <c r="I42" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="74" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F014449-75D7-4F48-8AA3-3F9B646468EC}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="14">
+      <c r="A1" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="126">
+      <c r="A2" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="41">
+        <f>Apr22_to_November22!E42</f>
+        <v>2321390.33</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="112">
+      <c r="A3" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="41">
+        <f>Apr22_to_November22!C42-Apr22_to_November22!D42-Apr22_to_November22!F34</f>
+        <v>203642.7400000004</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="84">
+      <c r="A4" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="41">
+        <f>Apr22_to_November22!F42</f>
+        <v>38201.43</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28">
+      <c r="A5" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="41">
+        <f>Apr22_to_November22!H19</f>
+        <v>700000</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="140">
+      <c r="A6" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="45">
+        <f>Apr22_to_November22!G42</f>
+        <v>1426685</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="126">
+      <c r="A7" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="45">
+        <f>B5+B4+B3</f>
+        <v>941844.17000000039</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>